--- a/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-3rdInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-3rdInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +273,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -592,7 +600,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +645,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>300.95999999999998</v>
+        <v>301.47000000000003</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -649,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>300.95999999999998</v>
+        <v>301.47000000000003</v>
       </c>
       <c r="F3" s="6">
         <v>165.47</v>
@@ -899,7 +907,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,13 +1094,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>835.73</v>
+        <v>835.72</v>
       </c>
       <c r="G5" s="7">
-        <v>2489.66</v>
+        <v>2489.67</v>
       </c>
       <c r="H5" s="6">
-        <v>51.99</v>
+        <v>52</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1131,13 +1139,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>835.2</v>
+        <v>835.11</v>
       </c>
       <c r="G6" s="7">
-        <v>1654.46</v>
+        <v>1654.56</v>
       </c>
       <c r="H6" s="6">
-        <v>52.52</v>
+        <v>52.61</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1176,13 +1184,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>839.8</v>
+        <v>839.59</v>
       </c>
       <c r="G7" s="6">
-        <v>814.66</v>
+        <v>814.97</v>
       </c>
       <c r="H7" s="6">
-        <v>47.92</v>
+        <v>48.13</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1221,13 +1229,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>814.66</v>
+        <v>814.97</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1236,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>862.36</v>
+        <v>862.87</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1250,7 +1258,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>862.36</v>
+        <v>862.87</v>
       </c>
     </row>
   </sheetData>
@@ -1260,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1313,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1317,19 +1325,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>60.77</v>
+        <v>53.7</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5307.13</v>
+        <v>5322.72</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1341,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>7.3</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1353,7 +1361,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1365,7 +1373,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>53.47</v>
+        <v>0.08</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1377,31 +1385,31 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>47.86</v>
+        <v>53.47</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7">
-        <v>5246.36</v>
+      <c r="J5" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1410,34 +1418,34 @@
         <v>42063</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
-        <v>47.86</v>
+        <v>48.07</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
-        <v>0</v>
+      <c r="J6" s="7">
+        <v>5269.02</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>52.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1449,43 +1457,43 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
-        <v>52.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7">
-        <v>5198.5</v>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>51.92</v>
+        <v>47.86</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1497,67 +1505,67 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6">
-        <v>51.92</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7">
-        <v>5146.05</v>
+        <v>5220.95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>49.75</v>
+        <v>15.08</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7">
-        <v>5094.13</v>
+      <c r="J11" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="6">
-        <v>49.75</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1569,73 +1577,217 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>41943</v>
+        <v>42035</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="6">
-        <v>44.38</v>
+        <v>52.45</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7">
-        <v>5044.38</v>
+      <c r="J13" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>41943</v>
+        <v>42004</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6">
-        <v>44.38</v>
+        <v>59.22</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>0</v>
+      <c r="J14" s="7">
+        <v>5153.3500000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="8">
+        <v>42004</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8">
+        <v>42004</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>51.92</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7">
+        <v>5094.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8">
         <v>41917</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E21" s="5">
         <v>5000</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1649,12 +1801,14 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1703,7 +1857,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -1734,7 +1888,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1767,8 +1921,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/15/waivecharge/38" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/38"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/15/waivecharge/46" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/15/waivecharge/46"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/3/waivecharge/5" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/5"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/3/waivecharge/6" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
